--- a/csv logs and archive/times summerize.xlsx
+++ b/csv logs and archive/times summerize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\Desktop\Studies\שנה ב\תכנות מונחה עצמים\Ex1\Ex1\csv logs and archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABB45CA-1978-4185-8FA3-BF3207BE7F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718D8352-B777-47BB-B2A7-0BBA12F3789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>log:</t>
   </si>
@@ -36,18 +36,6 @@
     <t>file algo</t>
   </si>
   <si>
-    <t>BasicGreedAlgoNoSort</t>
-  </si>
-  <si>
-    <t>BasicGreedAlgoSort</t>
-  </si>
-  <si>
-    <t>BasicGreedAlgoReverseSort</t>
-  </si>
-  <si>
-    <t>BasicGreedAlgoReverseSort_a</t>
-  </si>
-  <si>
     <t>building</t>
   </si>
   <si>
@@ -73,6 +61,48 @@
   </si>
   <si>
     <t>Total waiting time: 88203.437366,  average waiting time per call: 88.203437366,  unCompleted calls,1,  certificate, -523830849</t>
+  </si>
+  <si>
+    <t>BasicGreedyAlgoReverseSort_a</t>
+  </si>
+  <si>
+    <t>BasicGreedyAlgoReverseSort</t>
+  </si>
+  <si>
+    <t>BasicGreedyAlgoSort</t>
+  </si>
+  <si>
+    <t>BasicGreedyAlgoNoSort</t>
+  </si>
+  <si>
+    <t>FlexGreedyAlgoNoSort</t>
+  </si>
+  <si>
+    <t>Total waiting time: 53433.0,  average waiting time per call: 53.433,  unCompleted calls,0,  certificate, -130863015</t>
+  </si>
+  <si>
+    <t>FlexGreedyAlgoNoSort_a</t>
+  </si>
+  <si>
+    <t>Total waiting time: 1740.0,  average waiting time per call: 17.4,  unCompleted calls,0,  certificate, -240895499</t>
+  </si>
+  <si>
+    <t>Total waiting time: 64489.312097999995,  average waiting time per call: 64.489312098,  unCompleted calls,3,  certificate, -550936</t>
+  </si>
+  <si>
+    <t>FlexGreedyAlgoSort</t>
+  </si>
+  <si>
+    <t>Total waiting time: 43974.0,  average waiting time per call: 43.974,  unCompleted calls,0,  certificate, -100523897</t>
+  </si>
+  <si>
+    <t>FlexGreedyAlgoReserveSort</t>
+  </si>
+  <si>
+    <t>FlexGreedyAlgoReserveSort_a</t>
+  </si>
+  <si>
+    <t>Total waiting time: 1529.0,  average waiting time per call: 15.29,  unCompleted calls,0,  certificate, -238185301</t>
   </si>
 </sst>
 </file>
@@ -391,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N7"/>
+  <dimension ref="A3:E12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -414,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -425,70 +455,155 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>44510</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>44510</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44510</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44510</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44510</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
-        <v>44510</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44510</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44510</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44510</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44510</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44510</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/csv logs and archive/times summerize.xlsx
+++ b/csv logs and archive/times summerize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\Desktop\Studies\שנה ב\תכנות מונחה עצמים\Ex1\Ex1\csv logs and archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718D8352-B777-47BB-B2A7-0BBA12F3789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20005A8D-3089-4F0E-B3E2-71A71AE79DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>log:</t>
   </si>
@@ -103,6 +103,30 @@
   </si>
   <si>
     <t>Total waiting time: 1529.0,  average waiting time per call: 15.29,  unCompleted calls,0,  certificate, -238185301</t>
+  </si>
+  <si>
+    <t>Total waiting time: 49011.0,  average waiting time per call: 49.011,  unCompleted calls,0,  certificate, -120713707</t>
+  </si>
+  <si>
+    <t>Total waiting time: 49931.874732,  average waiting time per call: 49.931874732,  unCompleted calls,2,  certificate, -120713699</t>
+  </si>
+  <si>
+    <t>FlexGreedyAlgoSortWithFixer</t>
+  </si>
+  <si>
+    <t>FlexGreedyAlgoNoSortWithFixer</t>
+  </si>
+  <si>
+    <t>Total waiting time: 48702.0,  average waiting time per call: 48.702,  unCompleted calls,0,  certificate, -80037722</t>
+  </si>
+  <si>
+    <t>FlexGreedyAlgoReserveSortWithFixer</t>
+  </si>
+  <si>
+    <t>Total waiting time: 1319.0,  average waiting time per call: 13.19,  unCompleted calls,0,  certificate, -260638911</t>
+  </si>
+  <si>
+    <t>FlexGreedyAlgoReserveSortWithFixer_a</t>
   </si>
 </sst>
 </file>
@@ -421,19 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E12"/>
+  <dimension ref="A3:E16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="86" customWidth="1"/>
+    <col min="1" max="1" width="95" customWidth="1"/>
     <col min="2" max="2" width="8.796875" customWidth="1"/>
     <col min="3" max="3" width="27.09765625" customWidth="1"/>
     <col min="4" max="4" width="19.296875" customWidth="1"/>
-    <col min="5" max="5" width="26.3984375" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,6 +630,74 @@
         <v>24</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44511</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44511</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44511</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44511</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
